--- a/tut06/output/2001CB06.xlsx
+++ b/tut06/output/2001CB06.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2001CB06" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,7 +449,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Duplicate</t>
+          <t>Dublicate</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
@@ -464,11 +464,6 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>05-09-2022</t>
-        </is>
-      </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>2001CB06</t>
@@ -476,43 +471,18 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AMRIT KUMAR</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
+          <t xml:space="preserve"> AMRIT KUMAR</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>06-09-2022</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2001CB06</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>AMRIT KUMAR</t>
+          <t>28-07-2022</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -521,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -530,24 +500,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>15-09-2022</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2001CB06</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>AMRIT KUMAR</t>
+          <t>01-08-2022</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -556,30 +516,20 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>22-08-2022</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2001CB06</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>AMRIT KUMAR</t>
+          <t>04-08-2022</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -588,62 +538,42 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>28-07-2022</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2001CB06</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>AMRIT KUMAR</t>
+          <t>08-08-2022</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>29-08-2022</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2001CB06</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>AMRIT KUMAR</t>
+          <t>11-08-2022</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -652,23 +582,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>18-08-2022</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2001CB06</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>AMRIT KUMAR</t>
+          <t>15-08-2022</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -690,17 +610,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>26-09-2022</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2001CB06</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>AMRIT KUMAR</t>
+          <t>18-08-2022</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -722,17 +632,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>29-09-2022</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2001CB06</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>AMRIT KUMAR</t>
+          <t>22-08-2022</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -757,16 +657,6 @@
           <t>25-08-2022</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2001CB06</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>AMRIT KUMAR</t>
-        </is>
-      </c>
       <c r="D11" t="n">
         <v>1</v>
       </c>
@@ -786,24 +676,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12-08-2022</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2001CB06</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>AMRIT KUMAR</t>
+          <t>29-08-2022</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -812,30 +692,20 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>08-08-2022</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2001CB06</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>AMRIT KUMAR</t>
+          <t>01-09-2022</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -844,7 +714,183 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>05-09-2022</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>08-09-2022</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>12-09-2022</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>15-09-2022</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>19-09-2022</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>22-09-2022</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>26-09-2022</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>29-09-2022</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
